--- a/team.xlsx
+++ b/team.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="38">
   <si>
     <t>Name</t>
   </si>
@@ -121,24 +121,25 @@
   </si>
   <si>
     <t>Female</t>
+  </si>
+  <si>
+    <t>Ajay@in.bosch.com</t>
+  </si>
+  <si>
+    <t>Vinay@in.bosch.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -161,13 +162,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -178,8 +177,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -479,290 +477,293 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16" style="1" customWidth="1"/>
     <col min="5" max="5" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4">
-        <v>33188</v>
-      </c>
-      <c r="C2" s="4">
+      <c r="B2" s="3">
+        <v>33061</v>
+      </c>
+      <c r="C2" s="3">
         <v>43195</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>33188</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>43196</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>33189</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>43197</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>33190</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>43198</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>33191</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>43199</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4">
-        <v>33192</v>
-      </c>
-      <c r="C7" s="4">
+      <c r="B7" s="3">
+        <v>33061</v>
+      </c>
+      <c r="C7" s="3">
         <v>43200</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>33193</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>43201</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>33194</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>43202</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>33195</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>43203</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>33196</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>43204</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>33197</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>43205</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>33198</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>43206</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>33199</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>43207</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>33200</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>43208</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>33201</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>43209</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -770,16 +771,16 @@
       <c r="A17" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>33202</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>43210</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="D17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
         <v>7</v>
       </c>
     </row>
@@ -787,16 +788,16 @@
       <c r="A18" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>33203</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>43211</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="D18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
         <v>7</v>
       </c>
     </row>
@@ -804,16 +805,16 @@
       <c r="A19" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>33204</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>43212</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="D19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
         <v>7</v>
       </c>
     </row>
@@ -821,16 +822,16 @@
       <c r="A20" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>33205</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>43213</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" t="s">
         <v>7</v>
       </c>
     </row>
@@ -838,16 +839,16 @@
       <c r="A21" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>33206</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>43214</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" t="s">
         <v>7</v>
       </c>
     </row>
@@ -855,16 +856,16 @@
       <c r="A22" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="4">
-        <v>33207</v>
-      </c>
-      <c r="C22" s="4">
+      <c r="B22" s="3">
+        <v>33061</v>
+      </c>
+      <c r="C22" s="3">
         <v>43215</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="D22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" t="s">
         <v>7</v>
       </c>
     </row>
@@ -872,16 +873,16 @@
       <c r="A23" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <v>33208</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>43216</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="1" t="s">
+      <c r="D23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" t="s">
         <v>7</v>
       </c>
     </row>
@@ -889,16 +890,16 @@
       <c r="A24" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="3">
         <v>33209</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>43217</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" t="s">
         <v>7</v>
       </c>
     </row>
@@ -906,16 +907,16 @@
       <c r="A25" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="3">
         <v>33210</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <v>43218</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="1" t="s">
+      <c r="D25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" t="s">
         <v>7</v>
       </c>
     </row>
@@ -923,16 +924,16 @@
       <c r="A26" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="3">
         <v>33211</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>43219</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="1" t="s">
+      <c r="D26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" t="s">
         <v>7</v>
       </c>
     </row>
@@ -940,16 +941,16 @@
       <c r="A27" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="3">
         <v>33212</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>43220</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="1" t="s">
+      <c r="D27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" t="s">
         <v>7</v>
       </c>
     </row>
@@ -957,24 +958,20 @@
       <c r="A28" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="3">
         <v>33213</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <v>43221</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3:E28" r:id="rId2" display="Dhananjaya@in.bosch.com"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
